--- a/sql/数据库.xlsx
+++ b/sql/数据库.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="142">
   <si>
     <t>第一个表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,10 +178,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>店铺资料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>店铺信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -406,23 +402,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>telephone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>主键</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>主键,UserInfo的外键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主键;StoreInfo的外键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoreID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -572,10 +556,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>store_data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>store_info</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -605,6 +585,14 @@
   </si>
   <si>
     <t>goods_review</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoginName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -645,12 +633,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -667,7 +661,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -702,6 +696,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -998,10 +995,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E271"/>
+  <dimension ref="A1:H271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="E98" sqref="E98"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1014,7 +1011,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1030,7 +1027,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1044,7 +1041,7 @@
         <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1057,16 +1054,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1080,83 +1077,83 @@
         <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s">
         <v>45</v>
-      </c>
-      <c r="D10" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
         <v>47</v>
-      </c>
-      <c r="D11" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
         <v>49</v>
-      </c>
-      <c r="D12" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
         <v>51</v>
-      </c>
-      <c r="D13" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="C14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="C15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" t="s">
         <v>72</v>
       </c>
-      <c r="D15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E18" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="C19" t="s">
         <v>5</v>
       </c>
@@ -1164,219 +1161,309 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>30</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="B23" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="B23" t="s">
+      <c r="D23" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E23" s="12"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="9" customFormat="1">
+      <c r="B25" s="12"/>
+      <c r="C25" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="E25" s="12"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="B26" s="12"/>
+      <c r="C26" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="12"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="B27" s="12"/>
+      <c r="C27" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D27" s="12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="C24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" t="s">
-        <v>101</v>
-      </c>
-      <c r="E24" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="C25" t="s">
+      <c r="E27" s="12"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="B28" s="12"/>
+      <c r="C28" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D28" s="12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="C26" t="s">
+      <c r="E28" s="12"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="B29" s="12"/>
+      <c r="C29" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D29" s="12" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="C27" t="s">
+      <c r="E29" s="12"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="B30" s="12"/>
+      <c r="C30" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D27" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="E30" s="12"/>
+      <c r="H30">
         <v>1</v>
       </c>
-      <c r="C29" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="B30" t="s">
+    </row>
+    <row r="31" spans="1:8">
+      <c r="H31" s="9">
         <v>2</v>
       </c>
-      <c r="C30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="C31" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+    </row>
+    <row r="32" spans="1:8">
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="H32" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="B34" t="s">
         <v>2</v>
       </c>
+      <c r="C33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H33" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="C34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" t="s">
+        <v>63</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H34" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="C35" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="H35" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="C36" t="s">
         <v>8</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D36" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="C35" t="s">
+      <c r="F36" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="C37" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D37" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="C36" t="s">
+      <c r="F37" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="C38" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D38" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="C37" t="s">
+      <c r="F38" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H38" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="C39" t="s">
         <v>14</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D39" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="C38" t="s">
+      <c r="F39" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="C40" t="s">
         <v>15</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D40" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="C39" t="s">
+      <c r="F40" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="C41" t="s">
         <v>18</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D41" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="C40" t="s">
+      <c r="F41" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="C42" t="s">
         <v>21</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D42" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="C41" t="s">
+      <c r="F42" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="C43" t="s">
         <v>23</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D43" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="C42" t="s">
+      <c r="F43" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H43" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="C44" t="s">
         <v>25</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D44" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="C43" t="s">
-        <v>26</v>
-      </c>
-      <c r="D43" t="s">
-        <v>96</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="C44" t="s">
-        <v>28</v>
-      </c>
-      <c r="D44" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="F44" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="C45" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>57</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="C46" t="s">
         <v>33</v>
       </c>
@@ -1384,109 +1471,118 @@
         <v>34</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="C47" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="C48" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>128</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="C47" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="B48" s="9"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="9"/>
     </row>
     <row r="49" spans="1:5" s="9" customFormat="1">
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
+      <c r="B49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>89</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E49"/>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50" t="s">
         <v>56</v>
       </c>
-      <c r="B50" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" t="s">
-        <v>90</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>140</v>
-      </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="B51" t="s">
-        <v>2</v>
-      </c>
       <c r="C51" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="D51" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="C52" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D52" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="C53" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="E54" t="s">
-        <v>91</v>
+      <c r="E53" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="B56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>77</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C57" t="s">
-        <v>78</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>141</v>
+        <v>64</v>
+      </c>
+      <c r="D57" t="s">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="B58" t="s">
-        <v>2</v>
-      </c>
       <c r="C58" t="s">
         <v>65</v>
       </c>
       <c r="D58" t="s">
-        <v>57</v>
-      </c>
-      <c r="E58" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="C59" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D59" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1494,7 +1590,7 @@
         <v>68</v>
       </c>
       <c r="D60" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1502,15 +1598,15 @@
         <v>69</v>
       </c>
       <c r="D61" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="C62" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D62" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1518,358 +1614,356 @@
         <v>74</v>
       </c>
       <c r="D63" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="C64" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D64" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="C65" t="s">
         <v>79</v>
       </c>
-      <c r="D65" t="s">
-        <v>80</v>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="B66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>88</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B67" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C67" t="s">
-        <v>89</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>142</v>
+        <v>64</v>
+      </c>
+      <c r="D67" t="s">
+        <v>56</v>
+      </c>
+      <c r="E67" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="B68" t="s">
-        <v>2</v>
-      </c>
       <c r="C68" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="D68" t="s">
-        <v>57</v>
-      </c>
-      <c r="E68" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="C69" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D69" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="C70" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D70" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="C71" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D71" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="C72" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="C73" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D73" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="C74" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D74" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="C75" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D75" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="C76" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D76" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="C77" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D77" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="C78" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D78" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="C79" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D79" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="C80" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="D80" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="C81" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D81" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="C82" t="s">
-        <v>86</v>
-      </c>
-      <c r="D82" t="s">
-        <v>88</v>
+      <c r="C82" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="C83" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="C84" s="11"/>
-      <c r="D84" s="8"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="8"/>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="B85" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>83</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B86" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C86" t="s">
+        <v>64</v>
+      </c>
+      <c r="D86" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="C87" t="s">
         <v>84</v>
       </c>
-      <c r="D86" s="9" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="B87" t="s">
-        <v>2</v>
-      </c>
-      <c r="C87" t="s">
-        <v>65</v>
-      </c>
       <c r="D87" t="s">
-        <v>108</v>
+        <v>86</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="C88" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D88" t="s">
-        <v>87</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="C89" t="s">
         <v>79</v>
       </c>
-      <c r="D89" t="s">
-        <v>80</v>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="B91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>93</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C92" t="s">
+        <v>4</v>
+      </c>
+      <c r="D92" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="C93" t="s">
+        <v>91</v>
+      </c>
+      <c r="D93" t="s">
         <v>94</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="B93" t="s">
-        <v>2</v>
-      </c>
-      <c r="C93" t="s">
-        <v>4</v>
-      </c>
-      <c r="D93" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="C94" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="D94" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
-      <c r="C95" t="s">
-        <v>26</v>
-      </c>
-      <c r="D95" t="s">
-        <v>96</v>
-      </c>
+    <row r="96" spans="1:5">
+      <c r="B96" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E96" s="3"/>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="3">
         <v>12</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D97" s="10" t="s">
-        <v>129</v>
+        <v>106</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="E97" s="3"/>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="3"/>
-      <c r="B98" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C98" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="D98" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="E98" s="3"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E98" s="10" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D99" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E99" s="10" t="s">
-        <v>132</v>
-      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2"/>
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
+      <c r="B100" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>120</v>
+      </c>
       <c r="E100" s="2"/>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2"/>
       <c r="B101" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D101" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E101" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C101" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D101" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="E101" s="2"/>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2"/>
-      <c r="B102" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>116</v>
+      <c r="B102" s="2"/>
+      <c r="C102" s="8" t="s">
+        <v>122</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="E102" s="11" t="s">
-        <v>118</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="E102" s="2"/>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
-      <c r="C103" s="8" t="s">
-        <v>126</v>
+      <c r="C103" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E103" s="2"/>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
-      <c r="C104" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D104" s="11" t="s">
-        <v>127</v>
-      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
       <c r="E104" s="2"/>
     </row>
     <row r="105" spans="1:5">
@@ -3036,10 +3130,6 @@
     </row>
     <row r="271" spans="1:5">
       <c r="A271" s="2"/>
-      <c r="B271" s="2"/>
-      <c r="C271" s="2"/>
-      <c r="D271" s="2"/>
-      <c r="E271" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/sql/数据库.xlsx
+++ b/sql/数据库.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="146">
   <si>
     <t>第一个表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -270,14 +270,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Seller</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Customer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>OrderInfo的外键</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -559,14 +551,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>成交时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dealtime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>卖方</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -595,14 +579,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Staus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>退货表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -612,6 +588,14 @@
   </si>
   <si>
     <t>ReturnID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoreName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1078,10 +1062,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H266"/>
+  <dimension ref="A1:H264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1110,7 +1094,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1146,7 +1130,7 @@
         <v>32</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1222,7 +1206,7 @@
         <v>42</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1261,7 +1245,7 @@
         <v>29</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E23" s="9"/>
     </row>
@@ -1279,16 +1263,16 @@
         <v>23</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="6" customFormat="1">
       <c r="B25" s="9"/>
       <c r="C25" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E25" s="9"/>
     </row>
@@ -1352,13 +1336,13 @@
     </row>
     <row r="32" spans="1:8">
       <c r="B32" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E32" s="10"/>
       <c r="H32" s="6">
@@ -1370,16 +1354,16 @@
         <v>7</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H33" s="6">
         <v>4</v>
@@ -1388,14 +1372,14 @@
     <row r="34" spans="1:8">
       <c r="B34" s="10"/>
       <c r="C34" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E34" s="10"/>
       <c r="F34" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H34" s="6">
         <v>5</v>
@@ -1404,10 +1388,10 @@
     <row r="35" spans="1:8">
       <c r="B35" s="10"/>
       <c r="C35" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E35" s="10"/>
       <c r="F35" s="6" t="s">
@@ -1420,10 +1404,10 @@
     <row r="36" spans="1:8">
       <c r="B36" s="10"/>
       <c r="C36" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="6" t="s">
@@ -1436,10 +1420,10 @@
     <row r="37" spans="1:8">
       <c r="B37" s="10"/>
       <c r="C37" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="6" t="s">
@@ -1453,7 +1437,7 @@
       <c r="A38" s="6"/>
       <c r="B38" s="10"/>
       <c r="C38" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D38" s="15" t="s">
         <v>13</v>
@@ -1469,10 +1453,10 @@
     <row r="39" spans="1:8">
       <c r="B39" s="10"/>
       <c r="C39" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E39" s="10"/>
       <c r="F39" s="6" t="s">
@@ -1485,7 +1469,7 @@
     <row r="40" spans="1:8">
       <c r="B40" s="10"/>
       <c r="C40" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>11</v>
@@ -1501,7 +1485,7 @@
     <row r="41" spans="1:8">
       <c r="B41" s="10"/>
       <c r="C41" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>12</v>
@@ -1514,7 +1498,7 @@
     <row r="42" spans="1:8">
       <c r="B42" s="10"/>
       <c r="C42" s="16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>14</v>
@@ -1528,7 +1512,7 @@
     <row r="43" spans="1:8">
       <c r="B43" s="10"/>
       <c r="C43" s="16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>15</v>
@@ -1541,42 +1525,42 @@
     <row r="44" spans="1:8">
       <c r="B44" s="10"/>
       <c r="C44" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E44" s="10"/>
     </row>
     <row r="45" spans="1:8">
       <c r="B45" s="10"/>
       <c r="C45" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E45" s="10"/>
     </row>
     <row r="46" spans="1:8">
       <c r="B46" s="10"/>
       <c r="C46" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E46" s="11" t="s">
         <v>119</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="B47" s="10"/>
       <c r="C47" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E47" s="10"/>
     </row>
@@ -1588,13 +1572,13 @@
     </row>
     <row r="49" spans="1:6" s="6" customFormat="1">
       <c r="B49" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E49" s="12"/>
       <c r="F49"/>
@@ -1604,33 +1588,33 @@
         <v>44</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E50" s="12"/>
     </row>
     <row r="51" spans="1:6">
       <c r="B51" s="10"/>
       <c r="C51" s="12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E51" s="12"/>
     </row>
     <row r="52" spans="1:6">
       <c r="B52" s="10"/>
       <c r="C52" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E52" s="12"/>
     </row>
@@ -1639,7 +1623,7 @@
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
       <c r="E53" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1656,13 +1640,13 @@
     </row>
     <row r="56" spans="1:6">
       <c r="B56" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E56" s="10"/>
     </row>
@@ -1671,418 +1655,410 @@
         <v>46</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="B58" s="10"/>
       <c r="C58" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E58" s="10"/>
     </row>
     <row r="59" spans="1:6">
       <c r="B59" s="10"/>
       <c r="C59" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E59" s="10"/>
     </row>
     <row r="60" spans="1:6">
       <c r="B60" s="10"/>
       <c r="C60" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E60" s="10"/>
     </row>
     <row r="61" spans="1:6">
       <c r="B61" s="10"/>
       <c r="C61" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="E61" s="10"/>
+        <v>144</v>
+      </c>
     </row>
     <row r="62" spans="1:6">
       <c r="B62" s="10"/>
       <c r="C62" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E62" s="10"/>
+        <v>145</v>
+      </c>
     </row>
     <row r="63" spans="1:6">
       <c r="B63" s="10"/>
       <c r="C63" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>64</v>
+        <v>137</v>
       </c>
       <c r="E63" s="10"/>
     </row>
     <row r="64" spans="1:6">
       <c r="B64" s="10"/>
-      <c r="C64" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>141</v>
-      </c>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
       <c r="E64" s="10"/>
     </row>
     <row r="65" spans="1:5">
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
+      <c r="B65" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>96</v>
+      </c>
       <c r="E65" s="10"/>
     </row>
     <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>52</v>
+      </c>
       <c r="B66" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="B67" s="10"/>
+      <c r="C67" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C66" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="D66" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="E66" s="10"/>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="s">
-        <v>52</v>
-      </c>
-      <c r="B67" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>128</v>
-      </c>
       <c r="D67" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E67" s="10" t="s">
-        <v>65</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="E67" s="10"/>
     </row>
     <row r="68" spans="1:5">
       <c r="B68" s="10"/>
       <c r="C68" s="10" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="E68" s="10"/>
     </row>
     <row r="69" spans="1:5">
       <c r="B69" s="10"/>
       <c r="C69" s="10" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="E69" s="10"/>
     </row>
     <row r="70" spans="1:5">
       <c r="B70" s="10"/>
       <c r="C70" s="10" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="E70" s="10"/>
     </row>
     <row r="71" spans="1:5">
       <c r="B71" s="10"/>
       <c r="C71" s="10" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="E71" s="10"/>
     </row>
     <row r="72" spans="1:5">
       <c r="B72" s="10"/>
       <c r="C72" s="10" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="E72" s="10"/>
     </row>
     <row r="73" spans="1:5">
       <c r="B73" s="10"/>
       <c r="C73" s="10" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E73" s="10"/>
     </row>
     <row r="74" spans="1:5">
       <c r="B74" s="10"/>
       <c r="C74" s="10" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="E74" s="10"/>
     </row>
     <row r="75" spans="1:5">
       <c r="B75" s="10"/>
-      <c r="C75" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="D75" s="10" t="s">
-        <v>144</v>
+      <c r="C75" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="E75" s="10"/>
     </row>
     <row r="76" spans="1:5">
       <c r="B76" s="10"/>
-      <c r="C76" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="D76" s="10" t="s">
-        <v>146</v>
-      </c>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
       <c r="E76" s="10"/>
     </row>
     <row r="77" spans="1:5">
       <c r="B77" s="10"/>
-      <c r="C77" s="11" t="s">
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="B78" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E78" s="10"/>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>55</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E79" s="10"/>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="B80" s="10"/>
+      <c r="C80" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="C81" t="s">
+        <v>53</v>
+      </c>
+      <c r="D81" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="B84" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>58</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>57</v>
+      </c>
+      <c r="B85" t="s">
+        <v>2</v>
+      </c>
+      <c r="C85" t="s">
+        <v>4</v>
+      </c>
+      <c r="D85" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="C86" t="s">
+        <v>56</v>
+      </c>
+      <c r="D86" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="C87" t="s">
+        <v>16</v>
+      </c>
+      <c r="D87" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="B89" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D77" s="11" t="s">
+      <c r="D89" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E89" s="2"/>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="2">
+        <v>12</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E90" s="2"/>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="2"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="1"/>
+      <c r="B93" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E77" s="10"/>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="B78" s="10"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="10"/>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="B79" s="10"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="10"/>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="B80" s="10" t="s">
+      <c r="C93" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E93" s="1"/>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="1"/>
+      <c r="B94" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C80" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D80" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="E80" s="10"/>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="s">
-        <v>55</v>
-      </c>
-      <c r="B81" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="D81" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E81" s="10"/>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="B82" s="10"/>
-      <c r="C82" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="D82" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E82" s="11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="C83" t="s">
-        <v>53</v>
-      </c>
-      <c r="D83" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="B86" t="s">
-        <v>1</v>
-      </c>
-      <c r="C86" t="s">
-        <v>58</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" t="s">
-        <v>57</v>
-      </c>
-      <c r="B87" t="s">
-        <v>2</v>
-      </c>
-      <c r="C87" t="s">
-        <v>4</v>
-      </c>
-      <c r="D87" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="C88" t="s">
-        <v>56</v>
-      </c>
-      <c r="D88" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="C89" t="s">
-        <v>16</v>
-      </c>
-      <c r="D89" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="B91" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E91" s="2"/>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="A92" s="2">
-        <v>12</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D92" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E92" s="2"/>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E93" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94" s="2"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
+      <c r="D94" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="1"/>
-      <c r="B95" s="4" t="s">
-        <v>72</v>
-      </c>
+      <c r="B95" s="1"/>
       <c r="C95" s="5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E95" s="1"/>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="1"/>
-      <c r="B96" s="4" t="s">
-        <v>73</v>
-      </c>
+      <c r="B96" s="1"/>
       <c r="C96" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E96" s="8" t="s">
-        <v>76</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="E96" s="1"/>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
-      <c r="C97" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>82</v>
-      </c>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
       <c r="E97" s="1"/>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
-      <c r="C98" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D98" s="8" t="s">
-        <v>84</v>
-      </c>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
       <c r="E98" s="1"/>
     </row>
     <row r="99" spans="1:5">
@@ -3242,20 +3218,6 @@
     </row>
     <row r="264" spans="1:5">
       <c r="A264" s="1"/>
-      <c r="B264" s="1"/>
-      <c r="C264" s="1"/>
-      <c r="D264" s="1"/>
-      <c r="E264" s="1"/>
-    </row>
-    <row r="265" spans="1:5">
-      <c r="A265" s="1"/>
-      <c r="B265" s="1"/>
-      <c r="C265" s="1"/>
-      <c r="D265" s="1"/>
-      <c r="E265" s="1"/>
-    </row>
-    <row r="266" spans="1:5">
-      <c r="A266" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/sql/数据库.xlsx
+++ b/sql/数据库.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="147">
   <si>
     <t>第一个表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -596,6 +596,10 @@
   </si>
   <si>
     <t>UserName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1062,10 +1066,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H264"/>
+  <dimension ref="A1:H265"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1725,333 +1729,336 @@
       </c>
       <c r="E63" s="10"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" s="6" customFormat="1">
       <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
+      <c r="C64" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="E64" s="10"/>
     </row>
     <row r="65" spans="1:5">
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="B66" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C66" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="D65" s="11" t="s">
+      <c r="D66" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="E65" s="10"/>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="s">
+      <c r="E66" s="10"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
         <v>52</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B67" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C67" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="D66" s="10" t="s">
+      <c r="D67" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E66" s="10" t="s">
+      <c r="E67" s="10" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="B67" s="10"/>
-      <c r="C67" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E67" s="10"/>
     </row>
     <row r="68" spans="1:5">
       <c r="B68" s="10"/>
       <c r="C68" s="10" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="E68" s="10"/>
     </row>
     <row r="69" spans="1:5">
       <c r="B69" s="10"/>
       <c r="C69" s="10" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="E69" s="10"/>
     </row>
     <row r="70" spans="1:5">
       <c r="B70" s="10"/>
       <c r="C70" s="10" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="E70" s="10"/>
     </row>
     <row r="71" spans="1:5">
       <c r="B71" s="10"/>
       <c r="C71" s="10" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="E71" s="10"/>
     </row>
     <row r="72" spans="1:5">
       <c r="B72" s="10"/>
       <c r="C72" s="10" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="E72" s="10"/>
     </row>
     <row r="73" spans="1:5">
       <c r="B73" s="10"/>
       <c r="C73" s="10" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E73" s="10"/>
     </row>
     <row r="74" spans="1:5">
       <c r="B74" s="10"/>
       <c r="C74" s="10" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="E74" s="10"/>
     </row>
     <row r="75" spans="1:5">
       <c r="B75" s="10"/>
-      <c r="C75" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D75" s="11" t="s">
-        <v>68</v>
+      <c r="C75" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>140</v>
       </c>
       <c r="E75" s="10"/>
     </row>
     <row r="76" spans="1:5">
       <c r="B76" s="10"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="11"/>
+      <c r="C76" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>68</v>
+      </c>
       <c r="E76" s="10"/>
     </row>
     <row r="77" spans="1:5">
       <c r="B77" s="10"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
       <c r="E77" s="10"/>
     </row>
     <row r="78" spans="1:5">
-      <c r="B78" s="10" t="s">
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="B79" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C79" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="D78" s="11" t="s">
+      <c r="D79" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="E78" s="10"/>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="s">
+      <c r="E79" s="10"/>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
         <v>55</v>
       </c>
-      <c r="B79" s="10" t="s">
+      <c r="B80" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C80" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="D79" s="10" t="s">
+      <c r="D80" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E79" s="10"/>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="B80" s="10"/>
-      <c r="C80" s="10" t="s">
+      <c r="E80" s="10"/>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="B81" s="10"/>
+      <c r="C81" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="D80" s="10" t="s">
+      <c r="D81" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="E80" s="11" t="s">
+      <c r="E81" s="11" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
-      <c r="C81" t="s">
+    <row r="82" spans="1:5">
+      <c r="C82" t="s">
         <v>53</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D82" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
-      <c r="B84" t="s">
+    <row r="85" spans="1:5">
+      <c r="B85" t="s">
         <v>1</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C85" t="s">
         <v>58</v>
       </c>
-      <c r="D84" s="6" t="s">
+      <c r="D85" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
-      <c r="A85" t="s">
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
         <v>57</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B86" t="s">
         <v>2</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C86" t="s">
         <v>4</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D86" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="C86" t="s">
-        <v>56</v>
-      </c>
-      <c r="D86" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="C87" t="s">
+        <v>56</v>
+      </c>
+      <c r="D87" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="C88" t="s">
         <v>16</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D88" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
-      <c r="B89" s="2" t="s">
+    <row r="90" spans="1:5">
+      <c r="B90" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C90" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D89" s="7" t="s">
+      <c r="D90" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E89" s="2"/>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90" s="2">
+      <c r="E90" s="2"/>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="2">
         <v>12</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B91" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="C91" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D90" s="8" t="s">
+      <c r="D91" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E90" s="2"/>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E91" s="7" t="s">
-        <v>87</v>
-      </c>
+      <c r="E91" s="2"/>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="1"/>
-      <c r="B93" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D93" s="8" t="s">
-        <v>79</v>
-      </c>
+      <c r="A93" s="2"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
       <c r="E93" s="1"/>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="1"/>
       <c r="B94" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E94" s="8" t="s">
-        <v>74</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="E94" s="1"/>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="5" t="s">
-        <v>81</v>
+      <c r="B95" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E95" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
-      <c r="C96" s="4" t="s">
-        <v>76</v>
+      <c r="C96" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E96" s="1"/>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
+      <c r="C97" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>82</v>
+      </c>
       <c r="E97" s="1"/>
     </row>
     <row r="98" spans="1:5">
@@ -3218,6 +3225,13 @@
     </row>
     <row r="264" spans="1:5">
       <c r="A264" s="1"/>
+      <c r="B264" s="1"/>
+      <c r="C264" s="1"/>
+      <c r="D264" s="1"/>
+      <c r="E264" s="1"/>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/sql/数据库.xlsx
+++ b/sql/数据库.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="147">
   <si>
     <t>第一个表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -596,13 +596,17 @@
   </si>
   <si>
     <t>UserName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoodsID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10">
     <font>
       <sz val="11"/>
@@ -774,6 +778,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -820,7 +832,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -852,9 +864,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -886,6 +899,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1061,11 +1075,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H264"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1594,7 +1608,7 @@
         <v>72</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="E50" s="12"/>
     </row>
@@ -3227,7 +3241,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3241,7 +3255,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/sql/数据库.xlsx
+++ b/sql/数据库.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="111">
   <si>
     <t>第一个表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,10 +30,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户账号信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -62,26 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Material</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shape</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MovementStyle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Waterproof</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Style</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>商品编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -134,10 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>店铺信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>店铺编号(用户名)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -146,10 +118,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户资料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>年龄</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -186,10 +154,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>管理员信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AdminID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -292,10 +256,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>活动表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -304,10 +264,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>商品编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>销量</t>
   </si>
   <si>
@@ -315,10 +271,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>展览品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -327,18 +279,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GoodsID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goods_display</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Brand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>品牌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -351,10 +291,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>activity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>活动图片路径</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -367,46 +303,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>user_info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin_info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>store_info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goods_info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_goods</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_goods</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>goods_review</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -435,78 +331,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机芯类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>颜色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Color</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>材质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>形状</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防水深度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>型号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Model</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>库存</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>店铺编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoreID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>外键</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>商品用户表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UserID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -515,10 +355,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>订单基本信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>订单编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -551,26 +387,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>卖方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>买方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TotalPrice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品(当时的实时信息)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>购买数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -579,10 +395,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>退货表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>退货编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -591,15 +403,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>StoreName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UserName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收货地址</t>
+    <t>user_info（用户账号信息表）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_info（管理员信息表）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>store_info（店铺信息表）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods_info（商品信息表）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_data（用户资料表）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_goods(商品用户表)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Telephone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_info（订单基本信息）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_goods(商品实时信息表)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity（活动表）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods_display（商品展览表）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return（退货表）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -607,7 +463,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -669,24 +525,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -699,19 +539,54 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -720,7 +595,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -728,12 +603,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -760,16 +629,31 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1066,23 +950,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H265"/>
+  <dimension ref="A1:H261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.125" customWidth="1"/>
-    <col min="3" max="3" width="21.75" customWidth="1"/>
-    <col min="4" max="4" width="18.875" customWidth="1"/>
+    <col min="3" max="3" width="18.875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="21.75" style="12" customWidth="1"/>
     <col min="5" max="5" width="32.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1091,2149 +975,2059 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>88</v>
-      </c>
+      <c r="C4" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:5">
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="C6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>89</v>
-      </c>
+      <c r="C8" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="16"/>
     </row>
     <row r="9" spans="1:5">
       <c r="B9" t="s">
         <v>2</v>
       </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
+      <c r="C9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" t="s">
-        <v>34</v>
+      <c r="C10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="C11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" t="s">
-        <v>36</v>
+      <c r="C11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="C12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="C13" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="C14" s="12" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="C13" t="s">
+      <c r="D14" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D13" t="s">
+    </row>
+    <row r="15" spans="1:5">
+      <c r="C15" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="C14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="C15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
       </c>
-      <c r="C17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>90</v>
-      </c>
+      <c r="C17" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="C18" t="s">
+      <c r="C18" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="C19" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="12" t="s">
         <v>4</v>
-      </c>
-      <c r="D18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="7"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="E23" s="9"/>
+      <c r="C23" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="17"/>
+      <c r="E23" s="7"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="9" t="s">
+      <c r="C24" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="6" customFormat="1">
-      <c r="B25" s="9"/>
-      <c r="C25" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="E25" s="9"/>
+      <c r="E24" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="4" customFormat="1">
+      <c r="B25" s="7"/>
+      <c r="C25" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="B26" s="9"/>
-      <c r="C26" s="9" t="s">
+      <c r="B26" s="7"/>
+      <c r="C26" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="9"/>
+      <c r="D26" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="7"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="B27" s="9"/>
-      <c r="C27" s="9" t="s">
+      <c r="B27" s="7"/>
+      <c r="C27" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="B28" s="7"/>
+      <c r="C28" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="B29" s="7"/>
+      <c r="C29" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" s="9"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="B28" s="9"/>
-      <c r="C28" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" s="9"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="B29" s="9"/>
-      <c r="C29" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E29" s="9"/>
+      <c r="E29" s="7"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="B30" s="9"/>
-      <c r="C30" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E30" s="9"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="7"/>
       <c r="H30">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="H31" s="6">
+      <c r="H31" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="B32" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E32" s="10"/>
-      <c r="H32" s="6">
+      <c r="B32" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" s="18"/>
+      <c r="E32" s="8"/>
+      <c r="H32" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H33" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="B34" s="8"/>
+      <c r="C34" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H34" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="B35" s="8"/>
+      <c r="C35" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="H35" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="B36" s="8"/>
+      <c r="C36" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="B37" s="8"/>
+      <c r="C37" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E37" s="8"/>
+      <c r="F37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="B38" s="8"/>
+      <c r="C38" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E38" s="8"/>
+      <c r="F38" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H38" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="B39" s="8"/>
+      <c r="C39" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" s="8"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="B40" s="8"/>
+      <c r="C40" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E40" s="8"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="B41" s="8"/>
+      <c r="C41" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="B42" s="8"/>
+      <c r="C42" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E42" s="8"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="B43" s="9"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="9"/>
+    </row>
+    <row r="44" spans="1:8" s="4" customFormat="1">
+      <c r="B44" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D44" s="18"/>
+      <c r="E44" s="10"/>
+      <c r="F44"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="10"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="B46" s="8"/>
+      <c r="C46" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="10"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="B47" s="8"/>
+      <c r="C47" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="E47" s="10"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="B48" s="8"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="B49" s="8"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="8"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="B50" s="8"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="8"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="B51" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D51" s="18"/>
+      <c r="E51" s="8"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>37</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="B53" s="8"/>
+      <c r="C53" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E53" s="8"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="B54" s="8"/>
+      <c r="C54" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D54" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E54" s="8"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="B55" s="8"/>
+      <c r="C55" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D55" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="E55" s="8"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="B56" s="8"/>
+      <c r="C56" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" s="19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="B57" s="8"/>
+      <c r="C57" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="B58" s="8"/>
+      <c r="C58" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D58" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E58" s="8"/>
+    </row>
+    <row r="59" spans="1:5" s="4" customFormat="1">
+      <c r="B59" s="8"/>
+      <c r="C59" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D59" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="E59" s="8"/>
+    </row>
+    <row r="60" spans="1:5" s="4" customFormat="1">
+      <c r="B60" s="8"/>
+      <c r="C60" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D60" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E60" s="8"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="B61" s="8"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="8"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="B62" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D62" s="18"/>
+      <c r="E62" s="8"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>43</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="B64" s="8"/>
+      <c r="C64" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="8"/>
+    </row>
+    <row r="65" spans="2:5">
+      <c r="B65" s="8"/>
+      <c r="C65" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D65" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="E65" s="8"/>
+    </row>
+    <row r="66" spans="2:5">
+      <c r="B66" s="8"/>
+      <c r="C66" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66" s="8"/>
+    </row>
+    <row r="67" spans="2:5">
+      <c r="B67" s="8"/>
+      <c r="C67" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E67" s="8"/>
+    </row>
+    <row r="68" spans="2:5">
+      <c r="B68" s="8"/>
+      <c r="C68" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E68" s="8"/>
+    </row>
+    <row r="69" spans="2:5">
+      <c r="B69" s="8"/>
+      <c r="C69" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E69" s="8"/>
+    </row>
+    <row r="70" spans="2:5">
+      <c r="B70" s="8"/>
+      <c r="C70" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E70" s="8"/>
+    </row>
+    <row r="71" spans="2:5">
+      <c r="B71" s="8"/>
+      <c r="C71" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D71" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E71" s="8"/>
+    </row>
+    <row r="72" spans="2:5">
+      <c r="B72" s="8"/>
+      <c r="C72" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D72" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E72" s="8"/>
+    </row>
+    <row r="73" spans="2:5">
+      <c r="B73" s="8"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="8"/>
+    </row>
+    <row r="74" spans="2:5">
+      <c r="B74" s="8"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="8"/>
+    </row>
+    <row r="75" spans="2:5">
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
+    </row>
+    <row r="76" spans="2:5">
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+    </row>
+    <row r="77" spans="2:5">
+      <c r="C77" s="19"/>
+      <c r="D77" s="19"/>
+    </row>
+    <row r="78" spans="2:5">
+      <c r="C78" s="19"/>
+      <c r="D78" s="19"/>
+    </row>
+    <row r="79" spans="2:5">
+      <c r="C79" s="19"/>
+      <c r="D79" s="19"/>
+    </row>
+    <row r="80" spans="2:5">
+      <c r="C80" s="19"/>
+      <c r="D80" s="19"/>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="C81" s="19"/>
+      <c r="D81" s="19"/>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="C82" s="19"/>
+      <c r="D82" s="19"/>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="C83" s="19"/>
+      <c r="D83" s="19"/>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="C84" s="19"/>
+      <c r="D84" s="19"/>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="C85" s="19"/>
+      <c r="D85" s="19"/>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="B86" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C86" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D86" s="18"/>
+      <c r="E86" s="2"/>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="2">
+        <v>12</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C87" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D87" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" s="2"/>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D88" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E88" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="H33" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="B34" s="10"/>
-      <c r="C34" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="E34" s="10"/>
-      <c r="F34" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H34" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="B35" s="10"/>
-      <c r="C35" s="11" t="s">
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="2"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="19"/>
+      <c r="E89" s="1"/>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="1"/>
+      <c r="B90" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C90" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D90" s="18"/>
+      <c r="E90" s="1"/>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="1"/>
+      <c r="B91" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C91" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D91" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E92" s="1"/>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D35" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H35" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="B36" s="10"/>
-      <c r="C36" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H36" s="6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="B37" s="10"/>
-      <c r="C37" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H37" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="6"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H38" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="B39" s="10"/>
-      <c r="C39" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H39" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="B40" s="10"/>
-      <c r="C40" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" s="10"/>
-      <c r="F40" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="H40" s="6">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="B41" s="10"/>
-      <c r="C41" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" s="10"/>
-      <c r="H41" s="6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="B42" s="10"/>
-      <c r="C42" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E42" s="10"/>
-      <c r="F42" s="6"/>
-      <c r="H42" s="6">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="B43" s="10"/>
-      <c r="C43" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E43" s="10"/>
-      <c r="H43" s="6">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="B44" s="10"/>
-      <c r="C44" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="E44" s="10"/>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="B45" s="10"/>
-      <c r="C45" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="E45" s="10"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="B46" s="10"/>
-      <c r="C46" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="B47" s="10"/>
-      <c r="C47" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E47" s="10"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-    </row>
-    <row r="49" spans="1:6" s="6" customFormat="1">
-      <c r="B49" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E49" s="12"/>
-      <c r="F49"/>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" t="s">
-        <v>44</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D50" s="12" t="s">
+      <c r="D93" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="E50" s="12"/>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="B51" s="10"/>
-      <c r="C51" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E51" s="12"/>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="B52" s="10"/>
-      <c r="C52" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="E52" s="12"/>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="B53" s="10"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="B56" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="E56" s="10"/>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" t="s">
-        <v>46</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="B58" s="10"/>
-      <c r="C58" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="E58" s="10"/>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="B59" s="10"/>
-      <c r="C59" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="E59" s="10"/>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="B60" s="10"/>
-      <c r="C60" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E60" s="10"/>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="B61" s="10"/>
-      <c r="C61" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="B62" s="10"/>
-      <c r="C62" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="B63" s="10"/>
-      <c r="C63" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="E63" s="10"/>
-    </row>
-    <row r="64" spans="1:6" s="6" customFormat="1">
-      <c r="B64" s="10"/>
-      <c r="C64" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E64" s="10"/>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="B66" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="D66" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E66" s="10"/>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="s">
-        <v>52</v>
-      </c>
-      <c r="B67" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E67" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="B68" s="10"/>
-      <c r="C68" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D68" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E68" s="10"/>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="B69" s="10"/>
-      <c r="C69" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="E69" s="10"/>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="B70" s="10"/>
-      <c r="C70" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D70" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E70" s="10"/>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="B71" s="10"/>
-      <c r="C71" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D71" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E71" s="10"/>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="B72" s="10"/>
-      <c r="C72" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D72" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E72" s="10"/>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="B73" s="10"/>
-      <c r="C73" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D73" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="E73" s="10"/>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="B74" s="10"/>
-      <c r="C74" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="D74" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="E74" s="10"/>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="B75" s="10"/>
-      <c r="C75" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D75" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="E75" s="10"/>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="B76" s="10"/>
-      <c r="C76" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D76" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E76" s="10"/>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="B77" s="10"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="10"/>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="10"/>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="B79" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="D79" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="E79" s="10"/>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="s">
-        <v>55</v>
-      </c>
-      <c r="B80" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="D80" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E80" s="10"/>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="B81" s="10"/>
-      <c r="C81" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="D81" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="E81" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="C82" t="s">
-        <v>53</v>
-      </c>
-      <c r="D82" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="B85" t="s">
-        <v>1</v>
-      </c>
-      <c r="C85" t="s">
-        <v>58</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" t="s">
-        <v>57</v>
-      </c>
-      <c r="B86" t="s">
-        <v>2</v>
-      </c>
-      <c r="C86" t="s">
-        <v>4</v>
-      </c>
-      <c r="D86" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="C87" t="s">
-        <v>56</v>
-      </c>
-      <c r="D87" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="C88" t="s">
-        <v>16</v>
-      </c>
-      <c r="D88" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="B90" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E90" s="2"/>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91" s="2">
-        <v>12</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C91" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D91" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E91" s="2"/>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E92" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93" s="2"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
       <c r="E93" s="1"/>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="1"/>
-      <c r="B94" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D94" s="8" t="s">
-        <v>79</v>
-      </c>
+      <c r="B94" s="1"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="19"/>
       <c r="E94" s="1"/>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="1"/>
-      <c r="B95" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C95" s="4" t="s">
+      <c r="B95" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C95" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D95" s="18"/>
+      <c r="E95" s="8"/>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>46</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C96" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D96" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="E96" s="8"/>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="B97" s="8"/>
+      <c r="C97" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D97" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="C98" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D98" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="C99" s="19"/>
+      <c r="D99" s="19"/>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="C100" s="19"/>
+      <c r="D100" s="19"/>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="B101" t="s">
+        <v>1</v>
+      </c>
+      <c r="C101" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="D95" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E95" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D96" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E96" s="1"/>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E97" s="1"/>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
+      <c r="D101" s="19" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
+      <c r="A102" t="s">
+        <v>48</v>
+      </c>
+      <c r="B102" t="s">
+        <v>2</v>
+      </c>
+      <c r="C102" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D102" s="19" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
+      <c r="C103" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D103" s="19" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
+      <c r="C104" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D104" s="19" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
+      <c r="C105" s="19"/>
+      <c r="D105" s="19"/>
       <c r="E105" s="1"/>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
+      <c r="C106" s="19"/>
+      <c r="D106" s="19"/>
       <c r="E106" s="1"/>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
+      <c r="C107" s="19"/>
+      <c r="D107" s="19"/>
       <c r="E107" s="1"/>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
+      <c r="C108" s="19"/>
+      <c r="D108" s="19"/>
       <c r="E108" s="1"/>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
+      <c r="C109" s="19"/>
+      <c r="D109" s="19"/>
       <c r="E109" s="1"/>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
+      <c r="C110" s="19"/>
+      <c r="D110" s="19"/>
       <c r="E110" s="1"/>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
+      <c r="C111" s="19"/>
+      <c r="D111" s="19"/>
       <c r="E111" s="1"/>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
+      <c r="C112" s="19"/>
+      <c r="D112" s="19"/>
       <c r="E112" s="1"/>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
+      <c r="C113" s="19"/>
+      <c r="D113" s="19"/>
       <c r="E113" s="1"/>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
+      <c r="C114" s="19"/>
+      <c r="D114" s="19"/>
       <c r="E114" s="1"/>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
+      <c r="C115" s="19"/>
+      <c r="D115" s="19"/>
       <c r="E115" s="1"/>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
+      <c r="C116" s="19"/>
+      <c r="D116" s="19"/>
       <c r="E116" s="1"/>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
+      <c r="C117" s="19"/>
+      <c r="D117" s="19"/>
       <c r="E117" s="1"/>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
+      <c r="C118" s="19"/>
+      <c r="D118" s="19"/>
       <c r="E118" s="1"/>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
+      <c r="C119" s="19"/>
+      <c r="D119" s="19"/>
       <c r="E119" s="1"/>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
+      <c r="C120" s="19"/>
+      <c r="D120" s="19"/>
       <c r="E120" s="1"/>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
+      <c r="C121" s="19"/>
+      <c r="D121" s="19"/>
       <c r="E121" s="1"/>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
+      <c r="C122" s="19"/>
+      <c r="D122" s="19"/>
       <c r="E122" s="1"/>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
+      <c r="C123" s="19"/>
+      <c r="D123" s="19"/>
       <c r="E123" s="1"/>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
+      <c r="C124" s="19"/>
+      <c r="D124" s="19"/>
       <c r="E124" s="1"/>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
+      <c r="C125" s="19"/>
+      <c r="D125" s="19"/>
       <c r="E125" s="1"/>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
+      <c r="C126" s="19"/>
+      <c r="D126" s="19"/>
       <c r="E126" s="1"/>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
+      <c r="C127" s="19"/>
+      <c r="D127" s="19"/>
       <c r="E127" s="1"/>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
+      <c r="C128" s="19"/>
+      <c r="D128" s="19"/>
       <c r="E128" s="1"/>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
+      <c r="C129" s="19"/>
+      <c r="D129" s="19"/>
       <c r="E129" s="1"/>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
+      <c r="C130" s="19"/>
+      <c r="D130" s="19"/>
       <c r="E130" s="1"/>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
+      <c r="C131" s="19"/>
+      <c r="D131" s="19"/>
       <c r="E131" s="1"/>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
+      <c r="C132" s="19"/>
+      <c r="D132" s="19"/>
       <c r="E132" s="1"/>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
+      <c r="C133" s="19"/>
+      <c r="D133" s="19"/>
       <c r="E133" s="1"/>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
+      <c r="C134" s="19"/>
+      <c r="D134" s="19"/>
       <c r="E134" s="1"/>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
+      <c r="C135" s="19"/>
+      <c r="D135" s="19"/>
       <c r="E135" s="1"/>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
-      <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
+      <c r="C136" s="19"/>
+      <c r="D136" s="19"/>
       <c r="E136" s="1"/>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
+      <c r="C137" s="19"/>
+      <c r="D137" s="19"/>
       <c r="E137" s="1"/>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
+      <c r="C138" s="19"/>
+      <c r="D138" s="19"/>
       <c r="E138" s="1"/>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
+      <c r="C139" s="19"/>
+      <c r="D139" s="19"/>
       <c r="E139" s="1"/>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
+      <c r="C140" s="19"/>
+      <c r="D140" s="19"/>
       <c r="E140" s="1"/>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
-      <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
+      <c r="C141" s="19"/>
+      <c r="D141" s="19"/>
       <c r="E141" s="1"/>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
-      <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
+      <c r="C142" s="19"/>
+      <c r="D142" s="19"/>
       <c r="E142" s="1"/>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
-      <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
+      <c r="C143" s="19"/>
+      <c r="D143" s="19"/>
       <c r="E143" s="1"/>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
-      <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
+      <c r="C144" s="19"/>
+      <c r="D144" s="19"/>
       <c r="E144" s="1"/>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
-      <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
+      <c r="C145" s="19"/>
+      <c r="D145" s="19"/>
       <c r="E145" s="1"/>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
-      <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
+      <c r="C146" s="19"/>
+      <c r="D146" s="19"/>
       <c r="E146" s="1"/>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
-      <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
+      <c r="C147" s="19"/>
+      <c r="D147" s="19"/>
       <c r="E147" s="1"/>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
-      <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
+      <c r="C148" s="19"/>
+      <c r="D148" s="19"/>
       <c r="E148" s="1"/>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
-      <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
+      <c r="C149" s="19"/>
+      <c r="D149" s="19"/>
       <c r="E149" s="1"/>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
-      <c r="C150" s="1"/>
-      <c r="D150" s="1"/>
+      <c r="C150" s="19"/>
+      <c r="D150" s="19"/>
       <c r="E150" s="1"/>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
-      <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
+      <c r="C151" s="19"/>
+      <c r="D151" s="19"/>
       <c r="E151" s="1"/>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
-      <c r="C152" s="1"/>
-      <c r="D152" s="1"/>
+      <c r="C152" s="19"/>
+      <c r="D152" s="19"/>
       <c r="E152" s="1"/>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
-      <c r="C153" s="1"/>
-      <c r="D153" s="1"/>
+      <c r="C153" s="19"/>
+      <c r="D153" s="19"/>
       <c r="E153" s="1"/>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
-      <c r="C154" s="1"/>
-      <c r="D154" s="1"/>
+      <c r="C154" s="19"/>
+      <c r="D154" s="19"/>
       <c r="E154" s="1"/>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
-      <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
+      <c r="C155" s="19"/>
+      <c r="D155" s="19"/>
       <c r="E155" s="1"/>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
-      <c r="C156" s="1"/>
-      <c r="D156" s="1"/>
+      <c r="C156" s="19"/>
+      <c r="D156" s="19"/>
       <c r="E156" s="1"/>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
-      <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
+      <c r="C157" s="19"/>
+      <c r="D157" s="19"/>
       <c r="E157" s="1"/>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
-      <c r="C158" s="1"/>
-      <c r="D158" s="1"/>
+      <c r="C158" s="19"/>
+      <c r="D158" s="19"/>
       <c r="E158" s="1"/>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
-      <c r="C159" s="1"/>
-      <c r="D159" s="1"/>
+      <c r="C159" s="19"/>
+      <c r="D159" s="19"/>
       <c r="E159" s="1"/>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
-      <c r="C160" s="1"/>
-      <c r="D160" s="1"/>
+      <c r="C160" s="19"/>
+      <c r="D160" s="19"/>
       <c r="E160" s="1"/>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
-      <c r="C161" s="1"/>
-      <c r="D161" s="1"/>
+      <c r="C161" s="19"/>
+      <c r="D161" s="19"/>
       <c r="E161" s="1"/>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
-      <c r="C162" s="1"/>
-      <c r="D162" s="1"/>
+      <c r="C162" s="19"/>
+      <c r="D162" s="19"/>
       <c r="E162" s="1"/>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
-      <c r="C163" s="1"/>
-      <c r="D163" s="1"/>
+      <c r="C163" s="19"/>
+      <c r="D163" s="19"/>
       <c r="E163" s="1"/>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
-      <c r="C164" s="1"/>
-      <c r="D164" s="1"/>
+      <c r="C164" s="19"/>
+      <c r="D164" s="19"/>
       <c r="E164" s="1"/>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
-      <c r="C165" s="1"/>
-      <c r="D165" s="1"/>
+      <c r="C165" s="19"/>
+      <c r="D165" s="19"/>
       <c r="E165" s="1"/>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
-      <c r="C166" s="1"/>
-      <c r="D166" s="1"/>
+      <c r="C166" s="19"/>
+      <c r="D166" s="19"/>
       <c r="E166" s="1"/>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
-      <c r="C167" s="1"/>
-      <c r="D167" s="1"/>
+      <c r="C167" s="19"/>
+      <c r="D167" s="19"/>
       <c r="E167" s="1"/>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
-      <c r="C168" s="1"/>
-      <c r="D168" s="1"/>
+      <c r="C168" s="19"/>
+      <c r="D168" s="19"/>
       <c r="E168" s="1"/>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
-      <c r="C169" s="1"/>
-      <c r="D169" s="1"/>
+      <c r="C169" s="19"/>
+      <c r="D169" s="19"/>
       <c r="E169" s="1"/>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
-      <c r="C170" s="1"/>
-      <c r="D170" s="1"/>
+      <c r="C170" s="19"/>
+      <c r="D170" s="19"/>
       <c r="E170" s="1"/>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
-      <c r="C171" s="1"/>
-      <c r="D171" s="1"/>
+      <c r="C171" s="19"/>
+      <c r="D171" s="19"/>
       <c r="E171" s="1"/>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
-      <c r="C172" s="1"/>
-      <c r="D172" s="1"/>
+      <c r="C172" s="19"/>
+      <c r="D172" s="19"/>
       <c r="E172" s="1"/>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
-      <c r="C173" s="1"/>
-      <c r="D173" s="1"/>
+      <c r="C173" s="19"/>
+      <c r="D173" s="19"/>
       <c r="E173" s="1"/>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
-      <c r="C174" s="1"/>
-      <c r="D174" s="1"/>
+      <c r="C174" s="19"/>
+      <c r="D174" s="19"/>
       <c r="E174" s="1"/>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
-      <c r="C175" s="1"/>
-      <c r="D175" s="1"/>
+      <c r="C175" s="19"/>
+      <c r="D175" s="19"/>
       <c r="E175" s="1"/>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
-      <c r="C176" s="1"/>
-      <c r="D176" s="1"/>
+      <c r="C176" s="19"/>
+      <c r="D176" s="19"/>
       <c r="E176" s="1"/>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
-      <c r="C177" s="1"/>
-      <c r="D177" s="1"/>
+      <c r="C177" s="19"/>
+      <c r="D177" s="19"/>
       <c r="E177" s="1"/>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
-      <c r="C178" s="1"/>
-      <c r="D178" s="1"/>
+      <c r="C178" s="19"/>
+      <c r="D178" s="19"/>
       <c r="E178" s="1"/>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
-      <c r="C179" s="1"/>
-      <c r="D179" s="1"/>
+      <c r="C179" s="19"/>
+      <c r="D179" s="19"/>
       <c r="E179" s="1"/>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
-      <c r="C180" s="1"/>
-      <c r="D180" s="1"/>
+      <c r="C180" s="19"/>
+      <c r="D180" s="19"/>
       <c r="E180" s="1"/>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
-      <c r="C181" s="1"/>
-      <c r="D181" s="1"/>
+      <c r="C181" s="19"/>
+      <c r="D181" s="19"/>
       <c r="E181" s="1"/>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
-      <c r="C182" s="1"/>
-      <c r="D182" s="1"/>
+      <c r="C182" s="19"/>
+      <c r="D182" s="19"/>
       <c r="E182" s="1"/>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
-      <c r="C183" s="1"/>
-      <c r="D183" s="1"/>
+      <c r="C183" s="19"/>
+      <c r="D183" s="19"/>
       <c r="E183" s="1"/>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
-      <c r="C184" s="1"/>
-      <c r="D184" s="1"/>
+      <c r="C184" s="19"/>
+      <c r="D184" s="19"/>
       <c r="E184" s="1"/>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
-      <c r="C185" s="1"/>
-      <c r="D185" s="1"/>
+      <c r="C185" s="19"/>
+      <c r="D185" s="19"/>
       <c r="E185" s="1"/>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
-      <c r="C186" s="1"/>
-      <c r="D186" s="1"/>
+      <c r="C186" s="19"/>
+      <c r="D186" s="19"/>
       <c r="E186" s="1"/>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
-      <c r="C187" s="1"/>
-      <c r="D187" s="1"/>
+      <c r="C187" s="19"/>
+      <c r="D187" s="19"/>
       <c r="E187" s="1"/>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
-      <c r="C188" s="1"/>
-      <c r="D188" s="1"/>
+      <c r="C188" s="19"/>
+      <c r="D188" s="19"/>
       <c r="E188" s="1"/>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
-      <c r="C189" s="1"/>
-      <c r="D189" s="1"/>
+      <c r="C189" s="19"/>
+      <c r="D189" s="19"/>
       <c r="E189" s="1"/>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
-      <c r="C190" s="1"/>
-      <c r="D190" s="1"/>
+      <c r="C190" s="19"/>
+      <c r="D190" s="19"/>
       <c r="E190" s="1"/>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
-      <c r="C191" s="1"/>
-      <c r="D191" s="1"/>
+      <c r="C191" s="19"/>
+      <c r="D191" s="19"/>
       <c r="E191" s="1"/>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
-      <c r="C192" s="1"/>
-      <c r="D192" s="1"/>
+      <c r="C192" s="19"/>
+      <c r="D192" s="19"/>
       <c r="E192" s="1"/>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
-      <c r="C193" s="1"/>
-      <c r="D193" s="1"/>
+      <c r="C193" s="19"/>
+      <c r="D193" s="19"/>
       <c r="E193" s="1"/>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
-      <c r="C194" s="1"/>
-      <c r="D194" s="1"/>
+      <c r="C194" s="19"/>
+      <c r="D194" s="19"/>
       <c r="E194" s="1"/>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
-      <c r="C195" s="1"/>
-      <c r="D195" s="1"/>
+      <c r="C195" s="19"/>
+      <c r="D195" s="19"/>
       <c r="E195" s="1"/>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
-      <c r="C196" s="1"/>
-      <c r="D196" s="1"/>
+      <c r="C196" s="19"/>
+      <c r="D196" s="19"/>
       <c r="E196" s="1"/>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
-      <c r="C197" s="1"/>
-      <c r="D197" s="1"/>
+      <c r="C197" s="19"/>
+      <c r="D197" s="19"/>
       <c r="E197" s="1"/>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
-      <c r="C198" s="1"/>
-      <c r="D198" s="1"/>
+      <c r="C198" s="19"/>
+      <c r="D198" s="19"/>
       <c r="E198" s="1"/>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
-      <c r="C199" s="1"/>
-      <c r="D199" s="1"/>
+      <c r="C199" s="19"/>
+      <c r="D199" s="19"/>
       <c r="E199" s="1"/>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
-      <c r="C200" s="1"/>
-      <c r="D200" s="1"/>
+      <c r="C200" s="19"/>
+      <c r="D200" s="19"/>
       <c r="E200" s="1"/>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
-      <c r="C201" s="1"/>
-      <c r="D201" s="1"/>
+      <c r="C201" s="19"/>
+      <c r="D201" s="19"/>
       <c r="E201" s="1"/>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
-      <c r="C202" s="1"/>
-      <c r="D202" s="1"/>
+      <c r="C202" s="19"/>
+      <c r="D202" s="19"/>
       <c r="E202" s="1"/>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
-      <c r="C203" s="1"/>
-      <c r="D203" s="1"/>
+      <c r="C203" s="19"/>
+      <c r="D203" s="19"/>
       <c r="E203" s="1"/>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
-      <c r="C204" s="1"/>
-      <c r="D204" s="1"/>
+      <c r="C204" s="19"/>
+      <c r="D204" s="19"/>
       <c r="E204" s="1"/>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
-      <c r="C205" s="1"/>
-      <c r="D205" s="1"/>
+      <c r="C205" s="19"/>
+      <c r="D205" s="19"/>
       <c r="E205" s="1"/>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
-      <c r="C206" s="1"/>
-      <c r="D206" s="1"/>
+      <c r="C206" s="19"/>
+      <c r="D206" s="19"/>
       <c r="E206" s="1"/>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
-      <c r="C207" s="1"/>
-      <c r="D207" s="1"/>
+      <c r="C207" s="19"/>
+      <c r="D207" s="19"/>
       <c r="E207" s="1"/>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
-      <c r="C208" s="1"/>
-      <c r="D208" s="1"/>
+      <c r="C208" s="19"/>
+      <c r="D208" s="19"/>
       <c r="E208" s="1"/>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
-      <c r="C209" s="1"/>
-      <c r="D209" s="1"/>
+      <c r="C209" s="19"/>
+      <c r="D209" s="19"/>
       <c r="E209" s="1"/>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
-      <c r="C210" s="1"/>
-      <c r="D210" s="1"/>
+      <c r="C210" s="19"/>
+      <c r="D210" s="19"/>
       <c r="E210" s="1"/>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
-      <c r="C211" s="1"/>
-      <c r="D211" s="1"/>
+      <c r="C211" s="19"/>
+      <c r="D211" s="19"/>
       <c r="E211" s="1"/>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
-      <c r="C212" s="1"/>
-      <c r="D212" s="1"/>
+      <c r="C212" s="19"/>
+      <c r="D212" s="19"/>
       <c r="E212" s="1"/>
     </row>
     <row r="213" spans="1:5">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
-      <c r="C213" s="1"/>
-      <c r="D213" s="1"/>
+      <c r="C213" s="19"/>
+      <c r="D213" s="19"/>
       <c r="E213" s="1"/>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
-      <c r="C214" s="1"/>
-      <c r="D214" s="1"/>
+      <c r="C214" s="19"/>
+      <c r="D214" s="19"/>
       <c r="E214" s="1"/>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
-      <c r="C215" s="1"/>
-      <c r="D215" s="1"/>
+      <c r="C215" s="19"/>
+      <c r="D215" s="19"/>
       <c r="E215" s="1"/>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
-      <c r="C216" s="1"/>
-      <c r="D216" s="1"/>
+      <c r="C216" s="19"/>
+      <c r="D216" s="19"/>
       <c r="E216" s="1"/>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
-      <c r="C217" s="1"/>
-      <c r="D217" s="1"/>
+      <c r="C217" s="19"/>
+      <c r="D217" s="19"/>
       <c r="E217" s="1"/>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
-      <c r="C218" s="1"/>
-      <c r="D218" s="1"/>
+      <c r="C218" s="19"/>
+      <c r="D218" s="19"/>
       <c r="E218" s="1"/>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
-      <c r="C219" s="1"/>
-      <c r="D219" s="1"/>
+      <c r="C219" s="19"/>
+      <c r="D219" s="19"/>
       <c r="E219" s="1"/>
     </row>
     <row r="220" spans="1:5">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
-      <c r="C220" s="1"/>
-      <c r="D220" s="1"/>
+      <c r="C220" s="19"/>
+      <c r="D220" s="19"/>
       <c r="E220" s="1"/>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
-      <c r="C221" s="1"/>
-      <c r="D221" s="1"/>
+      <c r="C221" s="19"/>
+      <c r="D221" s="19"/>
       <c r="E221" s="1"/>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
-      <c r="C222" s="1"/>
-      <c r="D222" s="1"/>
+      <c r="C222" s="19"/>
+      <c r="D222" s="19"/>
       <c r="E222" s="1"/>
     </row>
     <row r="223" spans="1:5">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
-      <c r="C223" s="1"/>
-      <c r="D223" s="1"/>
+      <c r="C223" s="19"/>
+      <c r="D223" s="19"/>
       <c r="E223" s="1"/>
     </row>
     <row r="224" spans="1:5">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
-      <c r="C224" s="1"/>
-      <c r="D224" s="1"/>
+      <c r="C224" s="19"/>
+      <c r="D224" s="19"/>
       <c r="E224" s="1"/>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
-      <c r="C225" s="1"/>
-      <c r="D225" s="1"/>
+      <c r="C225" s="19"/>
+      <c r="D225" s="19"/>
       <c r="E225" s="1"/>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
-      <c r="C226" s="1"/>
-      <c r="D226" s="1"/>
+      <c r="C226" s="14"/>
+      <c r="D226" s="14"/>
       <c r="E226" s="1"/>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
-      <c r="C227" s="1"/>
-      <c r="D227" s="1"/>
+      <c r="C227" s="14"/>
+      <c r="D227" s="14"/>
       <c r="E227" s="1"/>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
-      <c r="C228" s="1"/>
-      <c r="D228" s="1"/>
+      <c r="C228" s="14"/>
+      <c r="D228" s="14"/>
       <c r="E228" s="1"/>
     </row>
     <row r="229" spans="1:5">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
-      <c r="C229" s="1"/>
-      <c r="D229" s="1"/>
+      <c r="C229" s="14"/>
+      <c r="D229" s="14"/>
       <c r="E229" s="1"/>
     </row>
     <row r="230" spans="1:5">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
-      <c r="C230" s="1"/>
-      <c r="D230" s="1"/>
+      <c r="C230" s="14"/>
+      <c r="D230" s="14"/>
       <c r="E230" s="1"/>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
-      <c r="C231" s="1"/>
-      <c r="D231" s="1"/>
+      <c r="C231" s="14"/>
+      <c r="D231" s="14"/>
       <c r="E231" s="1"/>
     </row>
     <row r="232" spans="1:5">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
-      <c r="C232" s="1"/>
-      <c r="D232" s="1"/>
+      <c r="C232" s="14"/>
+      <c r="D232" s="14"/>
       <c r="E232" s="1"/>
     </row>
     <row r="233" spans="1:5">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
-      <c r="C233" s="1"/>
-      <c r="D233" s="1"/>
+      <c r="C233" s="14"/>
+      <c r="D233" s="14"/>
       <c r="E233" s="1"/>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
-      <c r="C234" s="1"/>
-      <c r="D234" s="1"/>
+      <c r="C234" s="14"/>
+      <c r="D234" s="14"/>
       <c r="E234" s="1"/>
     </row>
     <row r="235" spans="1:5">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
-      <c r="C235" s="1"/>
-      <c r="D235" s="1"/>
+      <c r="C235" s="14"/>
+      <c r="D235" s="14"/>
       <c r="E235" s="1"/>
     </row>
     <row r="236" spans="1:5">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
-      <c r="C236" s="1"/>
-      <c r="D236" s="1"/>
+      <c r="C236" s="14"/>
+      <c r="D236" s="14"/>
       <c r="E236" s="1"/>
     </row>
     <row r="237" spans="1:5">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
-      <c r="C237" s="1"/>
-      <c r="D237" s="1"/>
+      <c r="C237" s="14"/>
+      <c r="D237" s="14"/>
       <c r="E237" s="1"/>
     </row>
     <row r="238" spans="1:5">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
-      <c r="C238" s="1"/>
-      <c r="D238" s="1"/>
+      <c r="C238" s="14"/>
+      <c r="D238" s="14"/>
       <c r="E238" s="1"/>
     </row>
     <row r="239" spans="1:5">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
-      <c r="C239" s="1"/>
-      <c r="D239" s="1"/>
+      <c r="C239" s="14"/>
+      <c r="D239" s="14"/>
       <c r="E239" s="1"/>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
-      <c r="C240" s="1"/>
-      <c r="D240" s="1"/>
+      <c r="C240" s="14"/>
+      <c r="D240" s="14"/>
       <c r="E240" s="1"/>
     </row>
     <row r="241" spans="1:5">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
-      <c r="C241" s="1"/>
-      <c r="D241" s="1"/>
+      <c r="C241" s="14"/>
+      <c r="D241" s="14"/>
       <c r="E241" s="1"/>
     </row>
     <row r="242" spans="1:5">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
-      <c r="C242" s="1"/>
-      <c r="D242" s="1"/>
+      <c r="C242" s="14"/>
+      <c r="D242" s="14"/>
       <c r="E242" s="1"/>
     </row>
     <row r="243" spans="1:5">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
-      <c r="C243" s="1"/>
-      <c r="D243" s="1"/>
+      <c r="C243" s="14"/>
+      <c r="D243" s="14"/>
       <c r="E243" s="1"/>
     </row>
     <row r="244" spans="1:5">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
-      <c r="C244" s="1"/>
-      <c r="D244" s="1"/>
+      <c r="C244" s="14"/>
+      <c r="D244" s="14"/>
       <c r="E244" s="1"/>
     </row>
     <row r="245" spans="1:5">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
-      <c r="C245" s="1"/>
-      <c r="D245" s="1"/>
+      <c r="C245" s="14"/>
+      <c r="D245" s="14"/>
       <c r="E245" s="1"/>
     </row>
     <row r="246" spans="1:5">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
-      <c r="C246" s="1"/>
-      <c r="D246" s="1"/>
+      <c r="C246" s="14"/>
+      <c r="D246" s="14"/>
       <c r="E246" s="1"/>
     </row>
     <row r="247" spans="1:5">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
-      <c r="C247" s="1"/>
-      <c r="D247" s="1"/>
+      <c r="C247" s="14"/>
+      <c r="D247" s="14"/>
       <c r="E247" s="1"/>
     </row>
     <row r="248" spans="1:5">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
-      <c r="C248" s="1"/>
-      <c r="D248" s="1"/>
+      <c r="C248" s="14"/>
+      <c r="D248" s="14"/>
       <c r="E248" s="1"/>
     </row>
     <row r="249" spans="1:5">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
-      <c r="C249" s="1"/>
-      <c r="D249" s="1"/>
+      <c r="C249" s="14"/>
+      <c r="D249" s="14"/>
       <c r="E249" s="1"/>
     </row>
     <row r="250" spans="1:5">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
-      <c r="C250" s="1"/>
-      <c r="D250" s="1"/>
+      <c r="C250" s="14"/>
+      <c r="D250" s="14"/>
       <c r="E250" s="1"/>
     </row>
     <row r="251" spans="1:5">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
-      <c r="C251" s="1"/>
-      <c r="D251" s="1"/>
+      <c r="C251" s="14"/>
+      <c r="D251" s="14"/>
       <c r="E251" s="1"/>
     </row>
     <row r="252" spans="1:5">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
-      <c r="C252" s="1"/>
-      <c r="D252" s="1"/>
+      <c r="C252" s="14"/>
+      <c r="D252" s="14"/>
       <c r="E252" s="1"/>
     </row>
     <row r="253" spans="1:5">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
-      <c r="C253" s="1"/>
-      <c r="D253" s="1"/>
+      <c r="C253" s="14"/>
+      <c r="D253" s="14"/>
       <c r="E253" s="1"/>
     </row>
     <row r="254" spans="1:5">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
-      <c r="C254" s="1"/>
-      <c r="D254" s="1"/>
+      <c r="C254" s="14"/>
+      <c r="D254" s="14"/>
       <c r="E254" s="1"/>
     </row>
     <row r="255" spans="1:5">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
-      <c r="C255" s="1"/>
-      <c r="D255" s="1"/>
+      <c r="C255" s="14"/>
+      <c r="D255" s="14"/>
       <c r="E255" s="1"/>
     </row>
     <row r="256" spans="1:5">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
-      <c r="C256" s="1"/>
-      <c r="D256" s="1"/>
+      <c r="C256" s="14"/>
+      <c r="D256" s="14"/>
       <c r="E256" s="1"/>
     </row>
     <row r="257" spans="1:5">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
-      <c r="C257" s="1"/>
-      <c r="D257" s="1"/>
+      <c r="C257" s="14"/>
+      <c r="D257" s="14"/>
       <c r="E257" s="1"/>
     </row>
     <row r="258" spans="1:5">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
-      <c r="C258" s="1"/>
-      <c r="D258" s="1"/>
+      <c r="C258" s="14"/>
+      <c r="D258" s="14"/>
       <c r="E258" s="1"/>
     </row>
     <row r="259" spans="1:5">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
-      <c r="C259" s="1"/>
-      <c r="D259" s="1"/>
+      <c r="C259" s="14"/>
+      <c r="D259" s="14"/>
       <c r="E259" s="1"/>
     </row>
     <row r="260" spans="1:5">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
-      <c r="C260" s="1"/>
-      <c r="D260" s="1"/>
+      <c r="C260" s="14"/>
+      <c r="D260" s="14"/>
       <c r="E260" s="1"/>
     </row>
     <row r="261" spans="1:5">
       <c r="A261" s="1"/>
-      <c r="B261" s="1"/>
-      <c r="C261" s="1"/>
-      <c r="D261" s="1"/>
-      <c r="E261" s="1"/>
-    </row>
-    <row r="262" spans="1:5">
-      <c r="A262" s="1"/>
-      <c r="B262" s="1"/>
-      <c r="C262" s="1"/>
-      <c r="D262" s="1"/>
-      <c r="E262" s="1"/>
-    </row>
-    <row r="263" spans="1:5">
-      <c r="A263" s="1"/>
-      <c r="B263" s="1"/>
-      <c r="C263" s="1"/>
-      <c r="D263" s="1"/>
-      <c r="E263" s="1"/>
-    </row>
-    <row r="264" spans="1:5">
-      <c r="A264" s="1"/>
-      <c r="B264" s="1"/>
-      <c r="C264" s="1"/>
-      <c r="D264" s="1"/>
-      <c r="E264" s="1"/>
-    </row>
-    <row r="265" spans="1:5">
-      <c r="A265" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C8:D8"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
